--- a/normalizalas/Nyílt tanítási órák.xlsx
+++ b/normalizalas/Nyílt tanítási órák.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Pintér Csongor\Adatbázis\Adatbazis\normalizalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D4D744-77F9-441F-AC0D-0C17BBBE7F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABA56EE-C6A2-4241-9B6B-987036887296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="173">
   <si>
     <t>2023.11.27. (B hét hétfő)</t>
   </si>
@@ -513,6 +513,54 @@
   </si>
   <si>
     <t>Dr. Horváth Andrea</t>
+  </si>
+  <si>
+    <t>Déri Ildikó</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>10B</t>
+  </si>
+  <si>
+    <t>német</t>
+  </si>
+  <si>
+    <t>Füstösné Cs. Katalin</t>
+  </si>
+  <si>
+    <t>angol nyelv</t>
+  </si>
+  <si>
+    <t>Páva Zoltánné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.C </t>
+  </si>
+  <si>
+    <t>vállalkozási ismeretek</t>
+  </si>
+  <si>
+    <t>Galambfalvi Rozália</t>
+  </si>
+  <si>
+    <t>francia nyelv</t>
+  </si>
+  <si>
+    <t>12.D</t>
+  </si>
+  <si>
+    <t>Tóth Ágnes Katalin6</t>
+  </si>
+  <si>
+    <t>Programozási alapok</t>
+  </si>
+  <si>
+    <t>Hálózatok</t>
+  </si>
+  <si>
+    <t>Mészáros Róbert</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,6 +1280,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,11 +1505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80158C-5EE1-4410-9FAC-46E4B164E8BD}">
-  <dimension ref="A1:AC1002"/>
+  <dimension ref="A1:AC1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F35" activeCellId="1" sqref="C52 F35"/>
+      <selection pane="topRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1460,7 +1517,7 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
@@ -1989,7 +2046,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1">
       <c r="A16" s="13" t="s">
         <v>89</v>
       </c>
@@ -2003,7 +2060,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" t="s">
@@ -2024,24 +2081,22 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>112</v>
-      </c>
+      <c r="E17" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" t="s">
         <v>0</v>
       </c>
@@ -2064,18 +2119,20 @@
         <v>89</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="58"/>
+        <v>99</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>112</v>
+      </c>
       <c r="G18" t="s">
         <v>0</v>
       </c>
@@ -2098,18 +2155,20 @@
         <v>89</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="58"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>112</v>
+      </c>
       <c r="G19" t="s">
         <v>0</v>
       </c>
@@ -2132,20 +2191,18 @@
         <v>89</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>99</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F20" s="58"/>
       <c r="G20" t="s">
         <v>0</v>
       </c>
@@ -2163,23 +2220,23 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:29">
+      <c r="A21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="59"/>
+      <c r="B21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="58"/>
       <c r="G21" t="s">
         <v>0</v>
       </c>
@@ -2198,22 +2255,24 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29">
-      <c r="A22" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="61"/>
+      <c r="A22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>99</v>
+      </c>
       <c r="G22" t="s">
         <v>0</v>
       </c>
@@ -2231,23 +2290,23 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="58"/>
+    <row r="23" spans="1:29" ht="15.75" thickBot="1">
+      <c r="A23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="59"/>
       <c r="G23" t="s">
         <v>0</v>
       </c>
@@ -2266,22 +2325,22 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="58"/>
+      <c r="B24" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="61"/>
       <c r="G24" t="s">
         <v>0</v>
       </c>
@@ -2299,21 +2358,21 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1">
+    <row r="25" spans="1:29">
       <c r="A25" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" t="s">
@@ -2338,20 +2397,18 @@
         <v>118</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>135</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F26" s="58"/>
       <c r="G26" t="s">
         <v>0</v>
       </c>
@@ -2369,23 +2426,23 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:29">
+      <c r="A27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="59"/>
+      <c r="B27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="58"/>
       <c r="G27" t="s">
         <v>0</v>
       </c>
@@ -2404,24 +2461,24 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="51" t="s">
-        <v>1</v>
+      <c r="A28" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" t="s">
+        <v>0</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2439,28 +2496,26 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -2475,35 +2530,26 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A30" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -2518,35 +2564,26 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A31" s="21" t="s">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="63"/>
+      <c r="B31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -2562,36 +2599,25 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="63" t="s">
-        <v>112</v>
-      </c>
+      <c r="B32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -2606,23 +2632,23 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="64"/>
+      <c r="C33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="63"/>
       <c r="G33" s="51" t="s">
         <v>1</v>
       </c>
@@ -2630,11 +2656,6 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -2650,22 +2671,22 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="65"/>
+      <c r="A34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="63"/>
       <c r="G34" s="51" t="s">
         <v>1</v>
       </c>
@@ -2694,23 +2715,21 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1">
       <c r="A35" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>112</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F35" s="63"/>
       <c r="G35" s="51" t="s">
         <v>1</v>
       </c>
@@ -2739,21 +2758,23 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1">
       <c r="A36" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="63"/>
+        <v>50</v>
+      </c>
+      <c r="F36" s="63" t="s">
+        <v>112</v>
+      </c>
       <c r="G36" s="51" t="s">
         <v>1</v>
       </c>
@@ -2780,23 +2801,23 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A37" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="63"/>
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="64"/>
       <c r="G37" s="51" t="s">
         <v>1</v>
       </c>
@@ -2824,22 +2845,22 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="63"/>
+      <c r="B38" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="65"/>
       <c r="G38" s="51" t="s">
         <v>1</v>
       </c>
@@ -2866,23 +2887,25 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="31" t="s">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="64"/>
+      <c r="B39" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>112</v>
+      </c>
       <c r="G39" s="51" t="s">
         <v>1</v>
       </c>
@@ -2910,22 +2933,22 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="65"/>
+      <c r="A40" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="63"/>
       <c r="G40" s="51" t="s">
         <v>1</v>
       </c>
@@ -2954,19 +2977,19 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F41" s="63"/>
       <c r="G41" s="51" t="s">
@@ -2997,19 +3020,19 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1">
       <c r="A42" s="21" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F42" s="63"/>
       <c r="G42" s="51" t="s">
@@ -3038,23 +3061,23 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="63"/>
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A43" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="64"/>
       <c r="G43" s="51" t="s">
         <v>1</v>
       </c>
@@ -3082,22 +3105,22 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="63"/>
+      <c r="B44" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="65"/>
       <c r="G44" s="51" t="s">
         <v>1</v>
       </c>
@@ -3124,23 +3147,23 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="31" t="s">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A45" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="66"/>
+      <c r="B45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="63"/>
       <c r="G45" s="51" t="s">
         <v>1</v>
       </c>
@@ -3168,22 +3191,22 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="65"/>
+      <c r="A46" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="63"/>
       <c r="G46" s="51" t="s">
         <v>1</v>
       </c>
@@ -3212,23 +3235,21 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1">
       <c r="A47" s="21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="63" t="s">
-        <v>112</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="63"/>
       <c r="G47" s="51" t="s">
         <v>1</v>
       </c>
@@ -3257,19 +3278,19 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="F48" s="63"/>
       <c r="G48" s="51" t="s">
@@ -3300,19 +3321,19 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="F49" s="63"/>
       <c r="G49" s="51" t="s">
@@ -3341,25 +3362,23 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A50" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>112</v>
-      </c>
+    <row r="50" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A50" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="66"/>
       <c r="G50" s="51" t="s">
         <v>1</v>
       </c>
@@ -3387,22 +3406,22 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="64"/>
+      <c r="B51" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="65"/>
       <c r="G51" s="51" t="s">
         <v>1</v>
       </c>
@@ -3431,25 +3450,23 @@
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="D52" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="69" t="s">
-        <v>149</v>
-      </c>
+      <c r="F52" s="65"/>
       <c r="G52" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -3476,25 +3493,25 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="69" t="s">
+      <c r="D53" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="63" t="s">
         <v>112</v>
       </c>
       <c r="G53" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -3521,23 +3538,23 @@
     </row>
     <row r="54" spans="1:29" ht="15.75" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="69"/>
+      <c r="D54" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="63"/>
       <c r="G54" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -3564,23 +3581,23 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="69"/>
+      <c r="D55" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="63"/>
       <c r="G55" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -3607,25 +3624,25 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>150</v>
+      <c r="D56" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -3652,23 +3669,23 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A57" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="69"/>
+      <c r="D57" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="64"/>
       <c r="G57" s="51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -3695,21 +3712,23 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>149</v>
+      </c>
       <c r="G58" s="51" t="s">
         <v>2</v>
       </c>
@@ -3738,22 +3757,22 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1">
       <c r="A59" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="G59" s="51" t="s">
         <v>2</v>
@@ -3783,23 +3802,21 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="69" t="s">
-        <v>112</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F60" s="69"/>
       <c r="G60" s="51" t="s">
         <v>2</v>
       </c>
@@ -3828,19 +3845,19 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="F61" s="69"/>
       <c r="G61" s="51" t="s">
@@ -3871,23 +3888,21 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="69" t="s">
-        <v>99</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F62" s="69"/>
       <c r="G62" s="51" t="s">
         <v>2</v>
       </c>
@@ -3914,23 +3929,25 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A63" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>74</v>
+    <row r="63" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="G63" s="51" t="s">
         <v>2</v>
       </c>
@@ -3958,22 +3975,24 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="69"/>
+      <c r="A64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="G64" s="51" t="s">
         <v>2</v>
       </c>
@@ -4000,21 +4019,21 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>22</v>
+    <row r="65" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A65" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="F65" s="69"/>
       <c r="G65" s="51" t="s">
@@ -4044,20 +4063,20 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A66" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>106</v>
+      <c r="A66" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="F66" s="69"/>
       <c r="G66" s="51" t="s">
@@ -4088,21 +4107,23 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="69"/>
+        <v>163</v>
+      </c>
+      <c r="F67" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="G67" s="51" t="s">
         <v>2</v>
       </c>
@@ -4131,22 +4152,22 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F68" s="69" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="G68" s="51" t="s">
         <v>2</v>
@@ -4174,25 +4195,23 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F69" s="69" t="s">
-        <v>148</v>
-      </c>
+    <row r="69" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A69" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="69"/>
       <c r="G69" s="51" t="s">
         <v>2</v>
       </c>
@@ -4220,22 +4239,24 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="69"/>
+      <c r="A70" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>99</v>
+      </c>
       <c r="G70" s="51" t="s">
         <v>2</v>
       </c>
@@ -4262,21 +4283,21 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A71" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="46" t="s">
-        <v>128</v>
+    <row r="71" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A71" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="F71" s="69"/>
       <c r="G71" s="51" t="s">
@@ -4306,20 +4327,20 @@
       <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A72" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>106</v>
+      <c r="A72" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="51" t="s">
@@ -4350,19 +4371,19 @@
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="F73" s="69"/>
       <c r="G73" s="51" t="s">
@@ -4393,23 +4414,21 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" s="49" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F74" s="69" t="s">
-        <v>99</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F74" s="69"/>
       <c r="G74" s="51" t="s">
         <v>2</v>
       </c>
@@ -4436,21 +4455,21 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>133</v>
+    <row r="75" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A75" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F75" s="69"/>
       <c r="G75" s="51" t="s">
@@ -4479,24 +4498,24 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="53" t="s">
+    <row r="76" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A76" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>135</v>
+      <c r="D76" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="69" t="s">
+        <v>112</v>
       </c>
       <c r="G76" s="51" t="s">
         <v>2</v>
@@ -4525,13 +4544,27 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="51"/>
+      <c r="A77" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -4555,14 +4588,28 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
+    <row r="78" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A78" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G78" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -4587,13 +4634,25 @@
       <c r="AC78" s="3"/>
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51"/>
-      <c r="G79" s="51"/>
+      <c r="A79" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="69"/>
+      <c r="G79" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -4618,13 +4677,25 @@
       <c r="AC79" s="3"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
+      <c r="A80" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="69"/>
+      <c r="G80" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -4649,13 +4720,25 @@
       <c r="AC80" s="3"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
+      <c r="A81" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" s="69"/>
+      <c r="G81" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -4680,13 +4763,25 @@
       <c r="AC81" s="3"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
+      <c r="A82" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82" s="69"/>
+      <c r="G82" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -4711,13 +4806,27 @@
       <c r="AC82" s="3"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
+      <c r="A83" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -4741,14 +4850,26 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="51"/>
+    <row r="84" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A84" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" s="69"/>
+      <c r="G84" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -4772,14 +4893,28 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="51"/>
-      <c r="G85" s="51"/>
+    <row r="85" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A85" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -33076,6 +33211,13 @@
       <c r="AC997" s="3"/>
     </row>
     <row r="998" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A998" s="51"/>
+      <c r="B998" s="51"/>
+      <c r="C998" s="51"/>
+      <c r="D998" s="51"/>
+      <c r="E998" s="51"/>
+      <c r="F998" s="51"/>
+      <c r="G998" s="51"/>
       <c r="H998" s="3"/>
       <c r="I998" s="3"/>
       <c r="J998" s="3"/>
@@ -33100,6 +33242,13 @@
       <c r="AC998" s="3"/>
     </row>
     <row r="999" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A999" s="51"/>
+      <c r="B999" s="51"/>
+      <c r="C999" s="51"/>
+      <c r="D999" s="51"/>
+      <c r="E999" s="51"/>
+      <c r="F999" s="51"/>
+      <c r="G999" s="51"/>
       <c r="H999" s="3"/>
       <c r="I999" s="3"/>
       <c r="J999" s="3"/>
@@ -33124,6 +33273,13 @@
       <c r="AC999" s="3"/>
     </row>
     <row r="1000" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1000" s="51"/>
+      <c r="B1000" s="51"/>
+      <c r="C1000" s="51"/>
+      <c r="D1000" s="51"/>
+      <c r="E1000" s="51"/>
+      <c r="F1000" s="51"/>
+      <c r="G1000" s="51"/>
       <c r="H1000" s="3"/>
       <c r="I1000" s="3"/>
       <c r="J1000" s="3"/>
@@ -33148,6 +33304,13 @@
       <c r="AC1000" s="3"/>
     </row>
     <row r="1001" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1001" s="51"/>
+      <c r="B1001" s="51"/>
+      <c r="C1001" s="51"/>
+      <c r="D1001" s="51"/>
+      <c r="E1001" s="51"/>
+      <c r="F1001" s="51"/>
+      <c r="G1001" s="51"/>
       <c r="H1001" s="3"/>
       <c r="I1001" s="3"/>
       <c r="J1001" s="3"/>
@@ -33172,6 +33335,13 @@
       <c r="AC1001" s="3"/>
     </row>
     <row r="1002" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1002" s="51"/>
+      <c r="B1002" s="51"/>
+      <c r="C1002" s="51"/>
+      <c r="D1002" s="51"/>
+      <c r="E1002" s="51"/>
+      <c r="F1002" s="51"/>
+      <c r="G1002" s="51"/>
       <c r="H1002" s="3"/>
       <c r="I1002" s="3"/>
       <c r="J1002" s="3"/>
@@ -33195,9 +33365,277 @@
       <c r="AB1002" s="3"/>
       <c r="AC1002" s="3"/>
     </row>
+    <row r="1003" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1003" s="51"/>
+      <c r="B1003" s="51"/>
+      <c r="C1003" s="51"/>
+      <c r="D1003" s="51"/>
+      <c r="E1003" s="51"/>
+      <c r="F1003" s="51"/>
+      <c r="G1003" s="51"/>
+      <c r="H1003" s="3"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="3"/>
+      <c r="K1003" s="3"/>
+      <c r="L1003" s="3"/>
+      <c r="M1003" s="3"/>
+      <c r="N1003" s="3"/>
+      <c r="O1003" s="3"/>
+      <c r="P1003" s="3"/>
+      <c r="Q1003" s="3"/>
+      <c r="R1003" s="3"/>
+      <c r="S1003" s="3"/>
+      <c r="T1003" s="3"/>
+      <c r="U1003" s="3"/>
+      <c r="V1003" s="3"/>
+      <c r="W1003" s="3"/>
+      <c r="X1003" s="3"/>
+      <c r="Y1003" s="3"/>
+      <c r="Z1003" s="3"/>
+      <c r="AA1003" s="3"/>
+      <c r="AB1003" s="3"/>
+      <c r="AC1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1004" s="51"/>
+      <c r="B1004" s="51"/>
+      <c r="C1004" s="51"/>
+      <c r="D1004" s="51"/>
+      <c r="E1004" s="51"/>
+      <c r="F1004" s="51"/>
+      <c r="G1004" s="51"/>
+      <c r="H1004" s="3"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="3"/>
+      <c r="K1004" s="3"/>
+      <c r="L1004" s="3"/>
+      <c r="M1004" s="3"/>
+      <c r="N1004" s="3"/>
+      <c r="O1004" s="3"/>
+      <c r="P1004" s="3"/>
+      <c r="Q1004" s="3"/>
+      <c r="R1004" s="3"/>
+      <c r="S1004" s="3"/>
+      <c r="T1004" s="3"/>
+      <c r="U1004" s="3"/>
+      <c r="V1004" s="3"/>
+      <c r="W1004" s="3"/>
+      <c r="X1004" s="3"/>
+      <c r="Y1004" s="3"/>
+      <c r="Z1004" s="3"/>
+      <c r="AA1004" s="3"/>
+      <c r="AB1004" s="3"/>
+      <c r="AC1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1005" s="51"/>
+      <c r="B1005" s="51"/>
+      <c r="C1005" s="51"/>
+      <c r="D1005" s="51"/>
+      <c r="E1005" s="51"/>
+      <c r="F1005" s="51"/>
+      <c r="G1005" s="51"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="3"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="3"/>
+      <c r="O1005" s="3"/>
+      <c r="P1005" s="3"/>
+      <c r="Q1005" s="3"/>
+      <c r="R1005" s="3"/>
+      <c r="S1005" s="3"/>
+      <c r="T1005" s="3"/>
+      <c r="U1005" s="3"/>
+      <c r="V1005" s="3"/>
+      <c r="W1005" s="3"/>
+      <c r="X1005" s="3"/>
+      <c r="Y1005" s="3"/>
+      <c r="Z1005" s="3"/>
+      <c r="AA1005" s="3"/>
+      <c r="AB1005" s="3"/>
+      <c r="AC1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1006" s="51"/>
+      <c r="B1006" s="51"/>
+      <c r="C1006" s="51"/>
+      <c r="D1006" s="51"/>
+      <c r="E1006" s="51"/>
+      <c r="F1006" s="51"/>
+      <c r="G1006" s="51"/>
+      <c r="H1006" s="3"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="3"/>
+      <c r="K1006" s="3"/>
+      <c r="L1006" s="3"/>
+      <c r="M1006" s="3"/>
+      <c r="N1006" s="3"/>
+      <c r="O1006" s="3"/>
+      <c r="P1006" s="3"/>
+      <c r="Q1006" s="3"/>
+      <c r="R1006" s="3"/>
+      <c r="S1006" s="3"/>
+      <c r="T1006" s="3"/>
+      <c r="U1006" s="3"/>
+      <c r="V1006" s="3"/>
+      <c r="W1006" s="3"/>
+      <c r="X1006" s="3"/>
+      <c r="Y1006" s="3"/>
+      <c r="Z1006" s="3"/>
+      <c r="AA1006" s="3"/>
+      <c r="AB1006" s="3"/>
+      <c r="AC1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:29" ht="15.75" customHeight="1">
+      <c r="H1007" s="3"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="3"/>
+      <c r="L1007" s="3"/>
+      <c r="M1007" s="3"/>
+      <c r="N1007" s="3"/>
+      <c r="O1007" s="3"/>
+      <c r="P1007" s="3"/>
+      <c r="Q1007" s="3"/>
+      <c r="R1007" s="3"/>
+      <c r="S1007" s="3"/>
+      <c r="T1007" s="3"/>
+      <c r="U1007" s="3"/>
+      <c r="V1007" s="3"/>
+      <c r="W1007" s="3"/>
+      <c r="X1007" s="3"/>
+      <c r="Y1007" s="3"/>
+      <c r="Z1007" s="3"/>
+      <c r="AA1007" s="3"/>
+      <c r="AB1007" s="3"/>
+      <c r="AC1007" s="3"/>
+    </row>
+    <row r="1008" spans="1:29" ht="15.75" customHeight="1">
+      <c r="H1008" s="3"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="3"/>
+      <c r="K1008" s="3"/>
+      <c r="L1008" s="3"/>
+      <c r="M1008" s="3"/>
+      <c r="N1008" s="3"/>
+      <c r="O1008" s="3"/>
+      <c r="P1008" s="3"/>
+      <c r="Q1008" s="3"/>
+      <c r="R1008" s="3"/>
+      <c r="S1008" s="3"/>
+      <c r="T1008" s="3"/>
+      <c r="U1008" s="3"/>
+      <c r="V1008" s="3"/>
+      <c r="W1008" s="3"/>
+      <c r="X1008" s="3"/>
+      <c r="Y1008" s="3"/>
+      <c r="Z1008" s="3"/>
+      <c r="AA1008" s="3"/>
+      <c r="AB1008" s="3"/>
+      <c r="AC1008" s="3"/>
+    </row>
+    <row r="1009" spans="8:29" ht="15.75" customHeight="1">
+      <c r="H1009" s="3"/>
+      <c r="I1009" s="3"/>
+      <c r="J1009" s="3"/>
+      <c r="K1009" s="3"/>
+      <c r="L1009" s="3"/>
+      <c r="M1009" s="3"/>
+      <c r="N1009" s="3"/>
+      <c r="O1009" s="3"/>
+      <c r="P1009" s="3"/>
+      <c r="Q1009" s="3"/>
+      <c r="R1009" s="3"/>
+      <c r="S1009" s="3"/>
+      <c r="T1009" s="3"/>
+      <c r="U1009" s="3"/>
+      <c r="V1009" s="3"/>
+      <c r="W1009" s="3"/>
+      <c r="X1009" s="3"/>
+      <c r="Y1009" s="3"/>
+      <c r="Z1009" s="3"/>
+      <c r="AA1009" s="3"/>
+      <c r="AB1009" s="3"/>
+      <c r="AC1009" s="3"/>
+    </row>
+    <row r="1010" spans="8:29" ht="15.75" customHeight="1">
+      <c r="H1010" s="3"/>
+      <c r="I1010" s="3"/>
+      <c r="J1010" s="3"/>
+      <c r="K1010" s="3"/>
+      <c r="L1010" s="3"/>
+      <c r="M1010" s="3"/>
+      <c r="N1010" s="3"/>
+      <c r="O1010" s="3"/>
+      <c r="P1010" s="3"/>
+      <c r="Q1010" s="3"/>
+      <c r="R1010" s="3"/>
+      <c r="S1010" s="3"/>
+      <c r="T1010" s="3"/>
+      <c r="U1010" s="3"/>
+      <c r="V1010" s="3"/>
+      <c r="W1010" s="3"/>
+      <c r="X1010" s="3"/>
+      <c r="Y1010" s="3"/>
+      <c r="Z1010" s="3"/>
+      <c r="AA1010" s="3"/>
+      <c r="AB1010" s="3"/>
+      <c r="AC1010" s="3"/>
+    </row>
+    <row r="1011" spans="8:29" ht="15.75" customHeight="1">
+      <c r="H1011" s="3"/>
+      <c r="I1011" s="3"/>
+      <c r="J1011" s="3"/>
+      <c r="K1011" s="3"/>
+      <c r="L1011" s="3"/>
+      <c r="M1011" s="3"/>
+      <c r="N1011" s="3"/>
+      <c r="O1011" s="3"/>
+      <c r="P1011" s="3"/>
+      <c r="Q1011" s="3"/>
+      <c r="R1011" s="3"/>
+      <c r="S1011" s="3"/>
+      <c r="T1011" s="3"/>
+      <c r="U1011" s="3"/>
+      <c r="V1011" s="3"/>
+      <c r="W1011" s="3"/>
+      <c r="X1011" s="3"/>
+      <c r="Y1011" s="3"/>
+      <c r="Z1011" s="3"/>
+      <c r="AA1011" s="3"/>
+      <c r="AB1011" s="3"/>
+      <c r="AC1011" s="3"/>
+    </row>
+    <row r="1012" spans="8:29" ht="15.75" customHeight="1">
+      <c r="H1012" s="3"/>
+      <c r="I1012" s="3"/>
+      <c r="J1012" s="3"/>
+      <c r="K1012" s="3"/>
+      <c r="L1012" s="3"/>
+      <c r="M1012" s="3"/>
+      <c r="N1012" s="3"/>
+      <c r="O1012" s="3"/>
+      <c r="P1012" s="3"/>
+      <c r="Q1012" s="3"/>
+      <c r="R1012" s="3"/>
+      <c r="S1012" s="3"/>
+      <c r="T1012" s="3"/>
+      <c r="U1012" s="3"/>
+      <c r="V1012" s="3"/>
+      <c r="W1012" s="3"/>
+      <c r="X1012" s="3"/>
+      <c r="Y1012" s="3"/>
+      <c r="Z1012" s="3"/>
+      <c r="AA1012" s="3"/>
+      <c r="AB1012" s="3"/>
+      <c r="AC1012" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{020336D0-7829-4027-93B6-1B442BAC8610}"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{020336D0-7829-4027-93B6-1B442BAC8610}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/normalizalas/Nyílt tanítási órák.xlsx
+++ b/normalizalas/Nyílt tanítási órák.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Pintér Csongor\Adatbázis\Adatbazis\normalizalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABA56EE-C6A2-4241-9B6B-987036887296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08979246-9B6A-4A95-85E5-13E4B3E186C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="174">
   <si>
     <t>2023.11.27. (B hét hétfő)</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>Mészáros Róbert</t>
+  </si>
+  <si>
+    <t>programozási alapok</t>
   </si>
 </sst>
 </file>
@@ -1269,6 +1272,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,15 +1292,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1505,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80158C-5EE1-4410-9FAC-46E4B164E8BD}">
-  <dimension ref="A1:AC1012"/>
+  <dimension ref="A1:AC1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F77" sqref="F77"/>
+      <selection pane="topRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2577,7 +2580,7 @@
       <c r="D31" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="70" t="s">
         <v>161</v>
       </c>
       <c r="F31" s="17"/>
@@ -2611,7 +2614,7 @@
       <c r="D32" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="70" t="s">
         <v>163</v>
       </c>
       <c r="F32" s="17"/>
@@ -3200,10 +3203,10 @@
       <c r="C46" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="72" t="s">
         <v>106</v>
       </c>
       <c r="F46" s="63"/>
@@ -4548,16 +4551,16 @@
         <v>89</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F77" s="69" t="s">
         <v>99</v>
@@ -4588,24 +4591,24 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="31" t="s">
+    <row r="78" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A78" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="46" t="s">
+      <c r="B78" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" s="69" t="s">
         <v>99</v>
-      </c>
-      <c r="F78" s="69" t="s">
-        <v>148</v>
       </c>
       <c r="G78" s="51" t="s">
         <v>2</v>
@@ -4633,23 +4636,25 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="69"/>
+    <row r="79" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A79" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="G79" s="51" t="s">
         <v>2</v>
       </c>
@@ -4676,23 +4681,25 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A80" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="27" t="s">
+    <row r="80" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A80" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>83</v>
+      <c r="C80" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="E80" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="69"/>
+        <v>99</v>
+      </c>
+      <c r="F80" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="G80" s="51" t="s">
         <v>2</v>
       </c>
@@ -4720,20 +4727,20 @@
       <c r="AC80" s="3"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>106</v>
+      <c r="B81" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="F81" s="69"/>
       <c r="G81" s="51" t="s">
@@ -4767,16 +4774,16 @@
         <v>118</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="F82" s="69"/>
       <c r="G82" s="51" t="s">
@@ -4810,20 +4817,18 @@
         <v>118</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="49" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F83" s="69" t="s">
-        <v>99</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F83" s="69"/>
       <c r="G83" s="51" t="s">
         <v>2</v>
       </c>
@@ -4850,20 +4855,20 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A84" s="31" t="s">
+    <row r="84" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A84" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="38" t="s">
+      <c r="C84" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="39" t="s">
+      <c r="E84" s="29" t="s">
         <v>133</v>
       </c>
       <c r="F84" s="69"/>
@@ -4893,24 +4898,24 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="31" t="s">
+    <row r="85" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A85" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F85" s="52" t="s">
-        <v>135</v>
+      <c r="B85" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="69" t="s">
+        <v>99</v>
       </c>
       <c r="G85" s="51" t="s">
         <v>2</v>
@@ -4938,14 +4943,26 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
+    <row r="86" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A86" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="69"/>
+      <c r="G86" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -4969,14 +4986,28 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
+    <row r="87" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A87" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -33490,6 +33521,13 @@
       <c r="AC1006" s="3"/>
     </row>
     <row r="1007" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1007" s="51"/>
+      <c r="B1007" s="51"/>
+      <c r="C1007" s="51"/>
+      <c r="D1007" s="51"/>
+      <c r="E1007" s="51"/>
+      <c r="F1007" s="51"/>
+      <c r="G1007" s="51"/>
       <c r="H1007" s="3"/>
       <c r="I1007" s="3"/>
       <c r="J1007" s="3"/>
@@ -33514,6 +33552,13 @@
       <c r="AC1007" s="3"/>
     </row>
     <row r="1008" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1008" s="51"/>
+      <c r="B1008" s="51"/>
+      <c r="C1008" s="51"/>
+      <c r="D1008" s="51"/>
+      <c r="E1008" s="51"/>
+      <c r="F1008" s="51"/>
+      <c r="G1008" s="51"/>
       <c r="H1008" s="3"/>
       <c r="I1008" s="3"/>
       <c r="J1008" s="3"/>
@@ -33632,6 +33677,54 @@
       <c r="AA1012" s="3"/>
       <c r="AB1012" s="3"/>
       <c r="AC1012" s="3"/>
+    </row>
+    <row r="1013" spans="8:29" ht="15.75" customHeight="1">
+      <c r="H1013" s="3"/>
+      <c r="I1013" s="3"/>
+      <c r="J1013" s="3"/>
+      <c r="K1013" s="3"/>
+      <c r="L1013" s="3"/>
+      <c r="M1013" s="3"/>
+      <c r="N1013" s="3"/>
+      <c r="O1013" s="3"/>
+      <c r="P1013" s="3"/>
+      <c r="Q1013" s="3"/>
+      <c r="R1013" s="3"/>
+      <c r="S1013" s="3"/>
+      <c r="T1013" s="3"/>
+      <c r="U1013" s="3"/>
+      <c r="V1013" s="3"/>
+      <c r="W1013" s="3"/>
+      <c r="X1013" s="3"/>
+      <c r="Y1013" s="3"/>
+      <c r="Z1013" s="3"/>
+      <c r="AA1013" s="3"/>
+      <c r="AB1013" s="3"/>
+      <c r="AC1013" s="3"/>
+    </row>
+    <row r="1014" spans="8:29" ht="15.75" customHeight="1">
+      <c r="H1014" s="3"/>
+      <c r="I1014" s="3"/>
+      <c r="J1014" s="3"/>
+      <c r="K1014" s="3"/>
+      <c r="L1014" s="3"/>
+      <c r="M1014" s="3"/>
+      <c r="N1014" s="3"/>
+      <c r="O1014" s="3"/>
+      <c r="P1014" s="3"/>
+      <c r="Q1014" s="3"/>
+      <c r="R1014" s="3"/>
+      <c r="S1014" s="3"/>
+      <c r="T1014" s="3"/>
+      <c r="U1014" s="3"/>
+      <c r="V1014" s="3"/>
+      <c r="W1014" s="3"/>
+      <c r="X1014" s="3"/>
+      <c r="Y1014" s="3"/>
+      <c r="Z1014" s="3"/>
+      <c r="AA1014" s="3"/>
+      <c r="AB1014" s="3"/>
+      <c r="AC1014" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -33671,12 +33764,12 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="2"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -34481,12 +34574,12 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="2"/>
       <c r="G27" s="51"/>
       <c r="H27" s="3"/>
@@ -35542,12 +35635,12 @@
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="72"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="67"/>
       <c r="G53" s="51"/>
       <c r="H53" s="3"/>

--- a/normalizalas/Nyílt tanítási órák.xlsx
+++ b/normalizalas/Nyílt tanítási órák.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Pintér Csongor\Adatbázis\Adatbazis\normalizalas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Pintér Csongi\Adatbazis\normalizalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08979246-9B6A-4A95-85E5-13E4B3E186C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA122A1-E946-40C8-9673-19A8AEED5022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="175">
   <si>
     <t>2023.11.27. (B hét hétfő)</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>programozási alapok</t>
+  </si>
+  <si>
+    <t>9.H / 1.</t>
   </si>
 </sst>
 </file>
@@ -1510,9 +1513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80158C-5EE1-4410-9FAC-46E4B164E8BD}">
   <dimension ref="A1:AC1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F80" sqref="F80"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1523,7 +1526,7 @@
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="11" width="34.85546875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
@@ -3413,7 +3416,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>10</v>

--- a/normalizalas/Nyílt tanítási órák.xlsx
+++ b/normalizalas/Nyílt tanítási órák.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Pintér Csongi\Adatbazis\normalizalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA122A1-E946-40C8-9673-19A8AEED5022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A39761-4AEA-4C82-8138-206BBCC9E35B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="177">
   <si>
     <t>2023.11.27. (B hét hétfő)</t>
   </si>
@@ -568,12 +568,18 @@
   <si>
     <t>9.H / 1.</t>
   </si>
+  <si>
+    <t>Papné kigyósi Ildikó</t>
+  </si>
+  <si>
+    <t>Óra+E56E71A1:DA1:G69</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +633,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1072,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1309,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1511,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80158C-5EE1-4410-9FAC-46E4B164E8BD}">
-  <dimension ref="A1:AC1014"/>
+  <dimension ref="A1:AC1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1538,7 +1563,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
@@ -4293,22 +4318,20 @@
       <c r="A71" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="37" t="s">
-        <v>73</v>
+      <c r="B71" s="79" t="s">
+        <v>26</v>
       </c>
       <c r="C71" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>75</v>
+      <c r="D71" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="81" t="s">
+        <v>163</v>
       </c>
       <c r="F71" s="69"/>
-      <c r="G71" s="51" t="s">
-        <v>2</v>
-      </c>
+      <c r="G71" s="51"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -4332,21 +4355,21 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>96</v>
+    <row r="72" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A72" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="82" t="s">
+        <v>175</v>
       </c>
       <c r="F72" s="69"/>
       <c r="G72" s="51" t="s">
@@ -4376,20 +4399,20 @@
       <c r="AC72" s="3"/>
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>22</v>
+      <c r="B73" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="F73" s="69"/>
       <c r="G73" s="51" t="s">
@@ -4423,16 +4446,16 @@
         <v>89</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="F74" s="69"/>
       <c r="G74" s="51" t="s">
@@ -4466,16 +4489,16 @@
         <v>89</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F75" s="69"/>
       <c r="G75" s="51" t="s">
@@ -4509,20 +4532,18 @@
         <v>89</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="69" t="s">
-        <v>112</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F76" s="69"/>
       <c r="G76" s="51" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +4587,7 @@
         <v>101</v>
       </c>
       <c r="F77" s="69" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G77" s="51" t="s">
         <v>2</v>
@@ -4599,16 +4620,16 @@
         <v>89</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>46</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F78" s="69" t="s">
         <v>99</v>
@@ -4639,24 +4660,24 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A79" s="31" t="s">
+    <row r="79" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A79" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E79" s="46" t="s">
+      <c r="B79" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="69" t="s">
         <v>99</v>
-      </c>
-      <c r="F79" s="69" t="s">
-        <v>112</v>
       </c>
       <c r="G79" s="51" t="s">
         <v>2</v>
@@ -4689,7 +4710,7 @@
         <v>89</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C80" s="45" t="s">
         <v>55</v>
@@ -4729,23 +4750,25 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A81" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" s="69"/>
+    <row r="81" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A81" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="G81" s="51" t="s">
         <v>2</v>
       </c>
@@ -4773,20 +4796,20 @@
       <c r="AC81" s="3"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>128</v>
+      <c r="B82" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="F82" s="69"/>
       <c r="G82" s="51" t="s">
@@ -4820,16 +4843,16 @@
         <v>118</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>128</v>
       </c>
       <c r="F83" s="69"/>
       <c r="G83" s="51" t="s">
@@ -4863,16 +4886,16 @@
         <v>118</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F84" s="69"/>
       <c r="G84" s="51" t="s">
@@ -4906,20 +4929,18 @@
         <v>118</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="49" t="s">
-        <v>140</v>
+        <v>42</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" s="69" t="s">
-        <v>99</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="F85" s="69"/>
       <c r="G85" s="51" t="s">
         <v>2</v>
       </c>
@@ -4946,23 +4967,25 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="31" t="s">
+    <row r="86" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A86" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B86" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F86" s="69"/>
+      <c r="B86" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="69" t="s">
+        <v>99</v>
+      </c>
       <c r="G86" s="51" t="s">
         <v>2</v>
       </c>
@@ -4993,21 +5016,19 @@
       <c r="A87" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="52" t="s">
-        <v>135</v>
-      </c>
+      <c r="B87" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" s="69"/>
       <c r="G87" s="51" t="s">
         <v>2</v>
       </c>
@@ -5034,14 +5055,28 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
+    <row r="88" spans="1:29" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A88" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F88" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" s="51" t="s">
+        <v>2</v>
+      </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -33585,7 +33620,14 @@
       <c r="AB1008" s="3"/>
       <c r="AC1008" s="3"/>
     </row>
-    <row r="1009" spans="8:29" ht="15.75" customHeight="1">
+    <row r="1009" spans="1:29" ht="15.75" customHeight="1">
+      <c r="A1009" s="51"/>
+      <c r="B1009" s="51"/>
+      <c r="C1009" s="51"/>
+      <c r="D1009" s="51"/>
+      <c r="E1009" s="51"/>
+      <c r="F1009" s="51"/>
+      <c r="G1009" s="51"/>
       <c r="H1009" s="3"/>
       <c r="I1009" s="3"/>
       <c r="J1009" s="3"/>
@@ -33609,7 +33651,7 @@
       <c r="AB1009" s="3"/>
       <c r="AC1009" s="3"/>
     </row>
-    <row r="1010" spans="8:29" ht="15.75" customHeight="1">
+    <row r="1010" spans="1:29" ht="15.75" customHeight="1">
       <c r="H1010" s="3"/>
       <c r="I1010" s="3"/>
       <c r="J1010" s="3"/>
@@ -33633,7 +33675,7 @@
       <c r="AB1010" s="3"/>
       <c r="AC1010" s="3"/>
     </row>
-    <row r="1011" spans="8:29" ht="15.75" customHeight="1">
+    <row r="1011" spans="1:29" ht="15.75" customHeight="1">
       <c r="H1011" s="3"/>
       <c r="I1011" s="3"/>
       <c r="J1011" s="3"/>
@@ -33657,7 +33699,7 @@
       <c r="AB1011" s="3"/>
       <c r="AC1011" s="3"/>
     </row>
-    <row r="1012" spans="8:29" ht="15.75" customHeight="1">
+    <row r="1012" spans="1:29" ht="15.75" customHeight="1">
       <c r="H1012" s="3"/>
       <c r="I1012" s="3"/>
       <c r="J1012" s="3"/>
@@ -33681,7 +33723,7 @@
       <c r="AB1012" s="3"/>
       <c r="AC1012" s="3"/>
     </row>
-    <row r="1013" spans="8:29" ht="15.75" customHeight="1">
+    <row r="1013" spans="1:29" ht="15.75" customHeight="1">
       <c r="H1013" s="3"/>
       <c r="I1013" s="3"/>
       <c r="J1013" s="3"/>
@@ -33705,7 +33747,7 @@
       <c r="AB1013" s="3"/>
       <c r="AC1013" s="3"/>
     </row>
-    <row r="1014" spans="8:29" ht="15.75" customHeight="1">
+    <row r="1014" spans="1:29" ht="15.75" customHeight="1">
       <c r="H1014" s="3"/>
       <c r="I1014" s="3"/>
       <c r="J1014" s="3"/>
@@ -33729,12 +33771,36 @@
       <c r="AB1014" s="3"/>
       <c r="AC1014" s="3"/>
     </row>
+    <row r="1015" spans="1:29" ht="15.75" customHeight="1">
+      <c r="H1015" s="3"/>
+      <c r="I1015" s="3"/>
+      <c r="J1015" s="3"/>
+      <c r="K1015" s="3"/>
+      <c r="L1015" s="3"/>
+      <c r="M1015" s="3"/>
+      <c r="N1015" s="3"/>
+      <c r="O1015" s="3"/>
+      <c r="P1015" s="3"/>
+      <c r="Q1015" s="3"/>
+      <c r="R1015" s="3"/>
+      <c r="S1015" s="3"/>
+      <c r="T1015" s="3"/>
+      <c r="U1015" s="3"/>
+      <c r="V1015" s="3"/>
+      <c r="W1015" s="3"/>
+      <c r="X1015" s="3"/>
+      <c r="Y1015" s="3"/>
+      <c r="Z1015" s="3"/>
+      <c r="AA1015" s="3"/>
+      <c r="AB1015" s="3"/>
+      <c r="AC1015" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B35" r:id="rId1" xr:uid="{020336D0-7829-4027-93B6-1B442BAC8610}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
